--- a/mdm新框架开发-技术篇/功能模块.xlsx
+++ b/mdm新框架开发-技术篇/功能模块.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>客户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +117,22 @@
   </si>
   <si>
     <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,11 +206,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -276,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,6 +324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,19 +500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -516,60 +531,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -577,17 +601,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -595,32 +619,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -628,17 +652,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -661,12 +685,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,12 +699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
